--- a/src/main/resources/templates/houseTemplate.xlsx
+++ b/src/main/resources/templates/houseTemplate.xlsx
@@ -425,7 +425,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
